--- a/data/TEMPLATE-TWSD.xlsx
+++ b/data/TEMPLATE-TWSD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B724A-FB85-4350-8D3E-0B10B8814589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DCF23-F9FB-424B-AEBD-70A2AE16C357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="4815" windowWidth="18690" windowHeight="10080" tabRatio="999" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="3765" windowWidth="24150" windowHeight="10935" tabRatio="999" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUIDE" sheetId="9" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="437">
   <si>
     <t>pwsid</t>
   </si>
@@ -1304,6 +1304,84 @@
   </si>
   <si>
     <t>Green River Lake Adger</t>
+  </si>
+  <si>
+    <t>Bucket Watering, Drip Irrigation, Subsurface Irrigation, Athletic Field Irrigation</t>
+  </si>
+  <si>
+    <t>Filling, Refilling, or Topping off Ornamental Ponds, Fountains, etc.</t>
+  </si>
+  <si>
+    <t>Filling, Refilling, or Topping off Swimming Pools and Backyard Scale Facilities to Support Wildlife</t>
+  </si>
+  <si>
+    <t>Flushing or Pressure Testing New Water Lines</t>
+  </si>
+  <si>
+    <t>Hand Watering</t>
+  </si>
+  <si>
+    <t>Hand Watering, Drip Irrigation, Subsurface Irrigation</t>
+  </si>
+  <si>
+    <t>Hose-end Sprinklers</t>
+  </si>
+  <si>
+    <t>Indoor Water Use</t>
+  </si>
+  <si>
+    <t>New Landscape, Exception License</t>
+  </si>
+  <si>
+    <t>New Turf Watering Exception Permits</t>
+  </si>
+  <si>
+    <t>Outdoor Spray Irrigation</t>
+  </si>
+  <si>
+    <t>Pressure Washing, Car Washing, Swimming Pools, etc.</t>
+  </si>
+  <si>
+    <t>Spray Irrigation</t>
+  </si>
+  <si>
+    <t>Spray Irrigation of Non-Turf Plant Material (designated days)</t>
+  </si>
+  <si>
+    <t>Sray Irrigation on Turf and Grass (designated days)</t>
+  </si>
+  <si>
+    <t>Surface Washing</t>
+  </si>
+  <si>
+    <t>Swimming Pools</t>
+  </si>
+  <si>
+    <t>Vehicle Washing</t>
+  </si>
+  <si>
+    <t>Watering new lawns</t>
+  </si>
+  <si>
+    <t>allowed</t>
+  </si>
+  <si>
+    <t>Not allowed</t>
+  </si>
+  <si>
+    <t>1 day per week</t>
+  </si>
+  <si>
+    <t>3 days per week</t>
+  </si>
+  <si>
+    <t>description (modify as needed)</t>
+  </si>
+  <si>
+    <t>conservation_status (modify as needed)</t>
+  </si>
+  <si>
+    <t>Activities and restrictions (can modify, add, delete, columns as needed)</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1446,6 +1524,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2336,2994 +2420,3866 @@
       </c>
       <c r="C1">
         <f>COUNTIF(D2:D300,"?*")</f>
-        <v>9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B2)),MAX($A$1:A1)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>216</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2:C10" ca="1">OFFSET($D$2,,,COUNTIF($D$2:$D$300,"?*"))</f>
-        <v>Broad River</v>
+        <f t="array" aca="1" ref="C2:C228" ca="1">OFFSET($D$2,,,COUNTIF($D$2:$D$300,"?*"))</f>
+        <v>Abbotts Creek</v>
       </c>
       <c r="D2" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D2),$A$2:$B$228,2,0),"")</f>
-        <v>Broad River</v>
+        <v>Abbotts Creek</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B3)),MAX($A$1:A2)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>243</v>
       </c>
       <c r="C3" t="str">
         <f ca="1"/>
-        <v>Broad River (Forest City)</v>
+        <v>Allen Creek (I)</v>
       </c>
       <c r="D3" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D3),$A$2:$B$228,2,0),"")</f>
-        <v>Broad River (Forest City)</v>
+        <v>Allen Creek (I)</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B4)),MAX($A$1:A3)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>198</v>
       </c>
       <c r="C4" t="str">
         <f ca="1"/>
-        <v>Broad River (Shelby)</v>
+        <v>Anderson Creek</v>
       </c>
       <c r="D4" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D4),$A$2:$B$228,2,0),"")</f>
-        <v>Broad River (Shelby)</v>
+        <v>Anderson Creek</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B5)),MAX($A$1:A4)+1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>193</v>
       </c>
       <c r="C5" t="str">
         <f ca="1"/>
-        <v>First Broad River</v>
+        <v>Ararat River</v>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D5),$A$2:$B$228,2,0),"")</f>
-        <v>First Broad River</v>
+        <v>Ararat River</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B6)),MAX($A$1:A5)+1,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>321</v>
       </c>
       <c r="C6" t="str">
         <f ca="1"/>
-        <v>First Broad River (CCSD)</v>
+        <v>Back Creek</v>
       </c>
       <c r="D6" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D6),$A$2:$B$228,2,0),"")</f>
-        <v>First Broad River (CCSD)</v>
+        <v>Back Creek</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B7)),MAX($A$1:A6)+1,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>277</v>
       </c>
       <c r="C7" t="str">
         <f ca="1"/>
-        <v>French Broad River</v>
+        <v>Back Creek Lake</v>
       </c>
       <c r="D7" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D7),$A$2:$B$228,2,0),"")</f>
-        <v>French Broad River</v>
+        <v>Back Creek Lake</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B8)),MAX($A$1:A7)+1,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
       <c r="C8" t="str">
         <f ca="1"/>
-        <v>French Broad River (Asheville)</v>
+        <v>Back Creek/Sloans Creek</v>
       </c>
       <c r="D8" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D8),$A$2:$B$228,2,0),"")</f>
-        <v>French Broad River (Asheville)</v>
+        <v>Back Creek/Sloans Creek</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B9)),MAX($A$1:A8)+1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
       <c r="C9" t="str">
         <f ca="1"/>
-        <v>Second Broad River</v>
+        <v>Badin Lake</v>
       </c>
       <c r="D9" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D9),$A$2:$B$228,2,0),"")</f>
-        <v>Second Broad River</v>
+        <v>Badin Lake</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B10)),MAX($A$1:A9)+1,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>380</v>
       </c>
       <c r="C10" t="str">
         <f ca="1"/>
-        <v>Second Broad River - Forest City</v>
+        <v>Bear Creek (CPF)</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D10),$A$2:$B$228,2,0),"")</f>
-        <v>Second Broad River - Forest City</v>
+        <v>Bear Creek (CPF)</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B11)),MAX($A$1:A10)+1,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>273</v>
       </c>
+      <c r="C11" t="str">
+        <f ca="1"/>
+        <v>Beaver Creek (FBD)</v>
+      </c>
       <c r="D11" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D11),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Beaver Creek (FBD)</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B12)),MAX($A$1:A11)+1,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>294</v>
       </c>
+      <c r="C12" t="str">
+        <f ca="1"/>
+        <v>Beaver Creek (HIW)</v>
+      </c>
       <c r="D12" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D12),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Beaver Creek (HIW)</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B13)),MAX($A$1:A12)+1,0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>368</v>
       </c>
+      <c r="C13" t="str">
+        <f ca="1"/>
+        <v>Beetree Creek (Beetree Res.)</v>
+      </c>
       <c r="D13" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D13),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Beetree Creek (Beetree Res.)</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B14)),MAX($A$1:A13)+1,0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>269</v>
       </c>
+      <c r="C14" t="str">
+        <f ca="1"/>
+        <v>Belews Creek</v>
+      </c>
       <c r="D14" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D14),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Belews Creek</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B15)),MAX($A$1:A14)+1,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>332</v>
       </c>
+      <c r="C15" t="str">
+        <f ca="1"/>
+        <v>Big Alamance Creek</v>
+      </c>
       <c r="D15" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D15),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Big Alamance Creek</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B16)),MAX($A$1:A15)+1,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>258</v>
       </c>
+      <c r="C16" t="str">
+        <f ca="1"/>
+        <v>Big Creek</v>
+      </c>
       <c r="D16" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D16),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Big Creek</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B17)),MAX($A$1:A16)+1,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
       </c>
+      <c r="C17" t="str">
+        <f ca="1"/>
+        <v>Big Fall Creek</v>
+      </c>
       <c r="D17" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D17),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Big Fall Creek</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B18)),MAX($A$1:A17)+1,0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>401</v>
       </c>
+      <c r="C18" t="str">
+        <f ca="1"/>
+        <v>Blewett Falls Lake</v>
+      </c>
       <c r="D18" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D18),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Blewett Falls Lake</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B19)),MAX($A$1:A18)+1,0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>215</v>
       </c>
+      <c r="C19" t="str">
+        <f ca="1"/>
+        <v>Bowlens Creek</v>
+      </c>
       <c r="D19" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D19),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Bowlens Creek</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B20)),MAX($A$1:A19)+1,0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>284</v>
       </c>
+      <c r="C20" t="str">
+        <f ca="1"/>
+        <v>Bradley Creek</v>
+      </c>
       <c r="D20" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D20),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Bradley Creek</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B21)),MAX($A$1:A20)+1,0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>255</v>
       </c>
+      <c r="C21" t="str">
+        <f ca="1"/>
+        <v>Brittian Branch</v>
+      </c>
       <c r="D21" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D21),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Brittian Branch</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B22)),MAX($A$1:A21)+1,0)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>387</v>
       </c>
+      <c r="C22" t="str">
+        <f ca="1"/>
+        <v>Broad River</v>
+      </c>
       <c r="D22" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D22),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Broad River</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B23)),MAX($A$1:A22)+1,0)</f>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>190</v>
       </c>
+      <c r="C23" t="str">
+        <f ca="1"/>
+        <v>Broad River (Forest City)</v>
+      </c>
       <c r="D23" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D23),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Broad River (Forest City)</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B24)),MAX($A$1:A23)+1,0)</f>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>191</v>
       </c>
+      <c r="C24" t="str">
+        <f ca="1"/>
+        <v>Broad River (Shelby)</v>
+      </c>
       <c r="D24" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D24),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Broad River (Shelby)</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B25)),MAX($A$1:A24)+1,0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>361</v>
       </c>
+      <c r="C25" t="str">
+        <f ca="1"/>
+        <v>Buck Creek</v>
+      </c>
       <c r="D25" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D25),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Buck Creek</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B26)),MAX($A$1:A25)+1,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>266</v>
       </c>
+      <c r="C26" t="str">
+        <f ca="1"/>
+        <v>Buckeye Creek</v>
+      </c>
       <c r="D26" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D26),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Buckeye Creek</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B27)),MAX($A$1:A26)+1,0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>247</v>
       </c>
+      <c r="C27" t="str">
+        <f ca="1"/>
+        <v>Buffalo Creek</v>
+      </c>
       <c r="D27" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D27),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Buffalo Creek</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B28)),MAX($A$1:A27)+1,0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>290</v>
       </c>
+      <c r="C28" t="str">
+        <f ca="1"/>
+        <v>Burgan Creek</v>
+      </c>
       <c r="D28" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D28),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Burgan Creek</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B29)),MAX($A$1:A28)+1,0)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>234</v>
       </c>
+      <c r="C29" t="str">
+        <f ca="1"/>
+        <v>Campbell Creek</v>
+      </c>
       <c r="D29" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D29),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Campbell Creek</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B30)),MAX($A$1:A29)+1,0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>340</v>
       </c>
+      <c r="C30" t="str">
+        <f ca="1"/>
+        <v>Cane Creek</v>
+      </c>
       <c r="D30" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D30),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cane Creek</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B31)),MAX($A$1:A30)+1,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>212</v>
       </c>
+      <c r="C31" t="str">
+        <f ca="1"/>
+        <v>Cane River</v>
+      </c>
       <c r="D31" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D31),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cane River</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B32)),MAX($A$1:A31)+1,0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>385</v>
       </c>
+      <c r="C32" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Dunn)</v>
+      </c>
       <c r="D32" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D32),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Dunn)</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B33)),MAX($A$1:A32)+1,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>397</v>
       </c>
+      <c r="C33" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Fayetteville)</v>
+      </c>
       <c r="D33" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D33),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Fayetteville)</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B34)),MAX($A$1:A33)+1,0)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>379</v>
       </c>
+      <c r="C34" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Lillington)</v>
+      </c>
       <c r="D34" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D34),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Lillington)</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B35)),MAX($A$1:A34)+1,0)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>299</v>
       </c>
+      <c r="C35" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Reigelwood)</v>
+      </c>
       <c r="D35" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D35),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Reigelwood)</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B36)),MAX($A$1:A35)+1,0)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>373</v>
       </c>
+      <c r="C36" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Sanford)</v>
+      </c>
       <c r="D36" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D36),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Sanford)</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B37)),MAX($A$1:A36)+1,0)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>189</v>
       </c>
+      <c r="C37" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Smithfield Packing Co)</v>
+      </c>
       <c r="D37" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D37),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Smithfield Packing Co)</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B38)),MAX($A$1:A37)+1,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>298</v>
       </c>
+      <c r="C38" t="str">
+        <f ca="1"/>
+        <v>Cape Fear River (Wilmington)</v>
+      </c>
       <c r="D38" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D38),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cape Fear River (Wilmington)</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B39)),MAX($A$1:A38)+1,0)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>395</v>
       </c>
+      <c r="C39" t="str">
+        <f ca="1"/>
+        <v>Cartoogechaye Creek</v>
+      </c>
       <c r="D39" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D39),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cartoogechaye Creek</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B40)),MAX($A$1:A39)+1,0)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>210</v>
       </c>
+      <c r="C40" t="str">
+        <f ca="1"/>
+        <v>Cascade Branch</v>
+      </c>
       <c r="D40" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D40),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cascade Branch</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B41)),MAX($A$1:A40)+1,0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>219</v>
       </c>
+      <c r="C41" t="str">
+        <f ca="1"/>
+        <v>Catawba River (Morganton)</v>
+      </c>
       <c r="D41" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D41),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Catawba River (Morganton)</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B42)),MAX($A$1:A41)+1,0)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>249</v>
       </c>
+      <c r="C42" t="str">
+        <f ca="1"/>
+        <v>Catheys Creek</v>
+      </c>
       <c r="D42" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D42),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Catheys Creek</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B43)),MAX($A$1:A42)+1,0)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>270</v>
       </c>
+      <c r="C43" t="str">
+        <f ca="1"/>
+        <v>Cedar Creek</v>
+      </c>
       <c r="D43" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D43),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cedar Creek</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B44)),MAX($A$1:A43)+1,0)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>245</v>
       </c>
+      <c r="C44" t="str">
+        <f ca="1"/>
+        <v>Cheoah River</v>
+      </c>
       <c r="D44" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D44),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cheoah River</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B45)),MAX($A$1:A44)+1,0)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>366</v>
       </c>
+      <c r="C45" t="str">
+        <f ca="1"/>
+        <v>Clear Creek</v>
+      </c>
       <c r="D45" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D45),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Clear Creek</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B46)),MAX($A$1:A45)+1,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>374</v>
       </c>
+      <c r="C46" t="str">
+        <f ca="1"/>
+        <v>Coddle Creek</v>
+      </c>
       <c r="D46" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D46),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Coddle Creek</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B47)),MAX($A$1:A46)+1,0)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>239</v>
       </c>
+      <c r="C47" t="str">
+        <f ca="1"/>
+        <v>Coldwater Creek (Lake Concord)</v>
+      </c>
       <c r="D47" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D47),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Coldwater Creek (Lake Concord)</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B48)),MAX($A$1:A47)+1,0)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>238</v>
       </c>
+      <c r="C48" t="str">
+        <f ca="1"/>
+        <v>Coldwater Creek (Lake Fisher)</v>
+      </c>
       <c r="D48" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D48),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Coldwater Creek (Lake Fisher)</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B49)),MAX($A$1:A48)+1,0)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>252</v>
       </c>
+      <c r="C49" t="str">
+        <f ca="1"/>
+        <v>Colt Creek</v>
+      </c>
       <c r="D49" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D49),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Colt Creek</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B50)),MAX($A$1:A49)+1,0)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>364</v>
       </c>
+      <c r="C50" t="str">
+        <f ca="1"/>
+        <v>Contentnea Creek</v>
+      </c>
       <c r="D50" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D50),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Contentnea Creek</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B51)),MAX($A$1:A50)+1,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>309</v>
       </c>
+      <c r="C51" t="str">
+        <f ca="1"/>
+        <v>Country Line Creek</v>
+      </c>
       <c r="D51" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D51),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Country Line Creek</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B52)),MAX($A$1:A51)+1,0)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>399</v>
       </c>
+      <c r="C52" t="str">
+        <f ca="1"/>
+        <v>Cross Creek</v>
+      </c>
       <c r="D52" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D52),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cross Creek</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B53)),MAX($A$1:A52)+1,0)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>259</v>
       </c>
+      <c r="C53" t="str">
+        <f ca="1"/>
+        <v>Cullasaja River (Lake Sequoyah)</v>
+      </c>
       <c r="D53" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D53),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Cullasaja River (Lake Sequoyah)</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B54)),MAX($A$1:A53)+1,0)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>295</v>
       </c>
+      <c r="C54" t="str">
+        <f ca="1"/>
+        <v>Dan Holland Creek</v>
+      </c>
       <c r="D54" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D54),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Dan Holland Creek</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B55)),MAX($A$1:A54)+1,0)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>186</v>
       </c>
+      <c r="C55" t="str">
+        <f ca="1"/>
+        <v>Dan River</v>
+      </c>
       <c r="D55" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D55),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Dan River</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B56)),MAX($A$1:A55)+1,0)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>408</v>
       </c>
+      <c r="C56" t="str">
+        <f ca="1"/>
+        <v>DAN RIVER</v>
+      </c>
       <c r="D56" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D56),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>DAN RIVER</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B57)),MAX($A$1:A56)+1,0)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>303</v>
       </c>
+      <c r="C57" t="str">
+        <f ca="1"/>
+        <v>Dan River (Eden)</v>
+      </c>
       <c r="D57" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D57),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Dan River (Eden)</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B58)),MAX($A$1:A57)+1,0)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>307</v>
       </c>
+      <c r="C58" t="str">
+        <f ca="1"/>
+        <v>Dan River (Madison)</v>
+      </c>
       <c r="D58" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D58),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Dan River (Madison)</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B59)),MAX($A$1:A58)+1,0)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>224</v>
       </c>
+      <c r="C59" t="str">
+        <f ca="1"/>
+        <v>Deep Creek</v>
+      </c>
       <c r="D59" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D59),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Deep Creek</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B60)),MAX($A$1:A59)+1,0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>235</v>
       </c>
+      <c r="C60" t="str">
+        <f ca="1"/>
+        <v>Deep River - Lee Co.</v>
+      </c>
       <c r="D60" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D60),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Deep River - Lee Co.</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B61)),MAX($A$1:A60)+1,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>375</v>
       </c>
+      <c r="C61" t="str">
+        <f ca="1"/>
+        <v>Deep River (Gulf-Goldston)</v>
+      </c>
       <c r="D61" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D61),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Deep River (Gulf-Goldston)</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B62)),MAX($A$1:A61)+1,0)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>345</v>
       </c>
+      <c r="C62" t="str">
+        <f ca="1"/>
+        <v>Deep River (Jamestown)</v>
+      </c>
       <c r="D62" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D62),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Deep River (Jamestown)</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B63)),MAX($A$1:A62)+1,0)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>339</v>
       </c>
+      <c r="C63" t="str">
+        <f ca="1"/>
+        <v>Deep River (Randleman Lake)</v>
+      </c>
       <c r="D63" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D63),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Deep River (Randleman Lake)</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B64)),MAX($A$1:A63)+1,0)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>393</v>
       </c>
+      <c r="C64" t="str">
+        <f ca="1"/>
+        <v>Drowning Creek</v>
+      </c>
       <c r="D64" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D64),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Drowning Creek</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B65)),MAX($A$1:A64)+1,0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>377</v>
       </c>
+      <c r="C65" t="str">
+        <f ca="1"/>
+        <v>Dutch Buffalo Creek</v>
+      </c>
       <c r="D65" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D65),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Dutch Buffalo Creek</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B66)),MAX($A$1:A65)+1,0)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>334</v>
       </c>
+      <c r="C66" t="str">
+        <f ca="1"/>
+        <v>East Fork Deep River (High Point Lake)</v>
+      </c>
       <c r="D66" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D66),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>East Fork Deep River (High Point Lake)</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B67)),MAX($A$1:A66)+1,0)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>308</v>
       </c>
+      <c r="C67" t="str">
+        <f ca="1"/>
+        <v>Elkin Creek</v>
+      </c>
       <c r="D67" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D67),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Elkin Creek</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B68)),MAX($A$1:A67)+1,0)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>223</v>
       </c>
+      <c r="C68" t="str">
+        <f ca="1"/>
+        <v>Eller Cove</v>
+      </c>
       <c r="D68" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D68),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Eller Cove</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B69)),MAX($A$1:A68)+1,0)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>204</v>
       </c>
+      <c r="C69" t="str">
+        <f ca="1"/>
+        <v>Eno River (Corporation Lake)</v>
+      </c>
       <c r="D69" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D69),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Eno River (Corporation Lake)</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B70)),MAX($A$1:A69)+1,0)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>205</v>
       </c>
+      <c r="C70" t="str">
+        <f ca="1"/>
+        <v>Eno River (Lake Ben Johnson)</v>
+      </c>
       <c r="D70" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D70),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Eno River (Lake Ben Johnson)</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B71)),MAX($A$1:A70)+1,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>271</v>
       </c>
+      <c r="C71" t="str">
+        <f ca="1"/>
+        <v>Eno River (Lower)</v>
+      </c>
       <c r="D71" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D71),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Eno River (Lower)</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B72)),MAX($A$1:A71)+1,0)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>261</v>
       </c>
+      <c r="C72" t="str">
+        <f ca="1"/>
+        <v>Falling Creek</v>
+      </c>
       <c r="D72" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D72),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Falling Creek</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B73)),MAX($A$1:A72)+1,0)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>330</v>
       </c>
+      <c r="C73" t="str">
+        <f ca="1"/>
+        <v>Falls Lake</v>
+      </c>
       <c r="D73" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D73),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Falls Lake</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B74)),MAX($A$1:A73)+1,0)</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>354</v>
       </c>
+      <c r="C74" t="str">
+        <f ca="1"/>
+        <v>Fantasy Lake (Rolesville)</v>
+      </c>
       <c r="D74" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D74),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fantasy Lake (Rolesville)</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B75)),MAX($A$1:A74)+1,0)</f>
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>248</v>
       </c>
+      <c r="C75" t="str">
+        <f ca="1"/>
+        <v>First Broad River</v>
+      </c>
       <c r="D75" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D75),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>First Broad River</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B76)),MAX($A$1:A75)+1,0)</f>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>281</v>
       </c>
+      <c r="C76" t="str">
+        <f ca="1"/>
+        <v>First Broad River (CCSD)</v>
+      </c>
       <c r="D76" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D76),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>First Broad River (CCSD)</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B77)),MAX($A$1:A76)+1,0)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>240</v>
       </c>
+      <c r="C77" t="str">
+        <f ca="1"/>
+        <v>Fisher Creek</v>
+      </c>
       <c r="D77" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D77),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fisher Creek</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B78)),MAX($A$1:A77)+1,0)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>301</v>
       </c>
+      <c r="C78" t="str">
+        <f ca="1"/>
+        <v>Fisher River</v>
+      </c>
       <c r="D78" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D78),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fisher River</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B79)),MAX($A$1:A78)+1,0)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>317</v>
       </c>
+      <c r="C79" t="str">
+        <f ca="1"/>
+        <v>Fishing Creek (Enfield)</v>
+      </c>
       <c r="D79" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D79),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fishing Creek (Enfield)</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B80)),MAX($A$1:A79)+1,0)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>310</v>
       </c>
+      <c r="C80" t="str">
+        <f ca="1"/>
+        <v>Flat River (Lake Michie)</v>
+      </c>
       <c r="D80" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D80),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Flat River (Lake Michie)</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B81)),MAX($A$1:A80)+1,0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>232</v>
       </c>
+      <c r="C81" t="str">
+        <f ca="1"/>
+        <v>Flat Rock Branch</v>
+      </c>
       <c r="D81" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D81),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Flat Rock Branch</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B82)),MAX($A$1:A81)+1,0)</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>328</v>
       </c>
+      <c r="C82" t="str">
+        <f ca="1"/>
+        <v>Flat Top Branch</v>
+      </c>
       <c r="D82" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D82),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Flat Top Branch</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B83)),MAX($A$1:A82)+1,0)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>229</v>
       </c>
+      <c r="C83" t="str">
+        <f ca="1"/>
+        <v>Fontana Lake</v>
+      </c>
       <c r="D83" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D83),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fontana Lake</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B84)),MAX($A$1:A83)+1,0)</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>253</v>
       </c>
+      <c r="C84" t="str">
+        <f ca="1"/>
+        <v>Fork Creek</v>
+      </c>
       <c r="D84" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D84),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fork Creek</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B85)),MAX($A$1:A84)+1,0)</f>
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>409</v>
       </c>
+      <c r="C85" t="str">
+        <f ca="1"/>
+        <v>French Broad River</v>
+      </c>
       <c r="D85" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D85),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>French Broad River</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B86)),MAX($A$1:A85)+1,0)</f>
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>386</v>
       </c>
+      <c r="C86" t="str">
+        <f ca="1"/>
+        <v>French Broad River (Asheville)</v>
+      </c>
       <c r="D86" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D86),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>French Broad River (Asheville)</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B87)),MAX($A$1:A86)+1,0)</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>207</v>
       </c>
+      <c r="C87" t="str">
+        <f ca="1"/>
+        <v>Fresh Pond at Kill Devil Hills</v>
+      </c>
       <c r="D87" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D87),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fresh Pond at Kill Devil Hills</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B88)),MAX($A$1:A87)+1,0)</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>265</v>
       </c>
+      <c r="C88" t="str">
+        <f ca="1"/>
+        <v>Fullers Creek</v>
+      </c>
       <c r="D88" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D88),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Fullers Creek</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B89)),MAX($A$1:A88)+1,0)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>213</v>
       </c>
+      <c r="C89" t="str">
+        <f ca="1"/>
+        <v>Graveyard Creek (Crystal Falls Creek)</v>
+      </c>
       <c r="D89" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D89),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Graveyard Creek (Crystal Falls Creek)</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B90)),MAX($A$1:A89)+1,0)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>410</v>
       </c>
+      <c r="C90" t="str">
+        <f ca="1"/>
+        <v>Green River Lake Adger</v>
+      </c>
       <c r="D90" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D90),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Green River Lake Adger</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B91)),MAX($A$1:A90)+1,0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>314</v>
       </c>
+      <c r="C91" t="str">
+        <f ca="1"/>
+        <v>Hachers Run</v>
+      </c>
       <c r="D91" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D91),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Hachers Run</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B92)),MAX($A$1:A91)+1,0)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>187</v>
       </c>
+      <c r="C92" t="str">
+        <f ca="1"/>
+        <v>Haw River</v>
+      </c>
       <c r="D92" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D92),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Haw River</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B93)),MAX($A$1:A92)+1,0)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>350</v>
       </c>
+      <c r="C93" t="str">
+        <f ca="1"/>
+        <v>Haw River (Jordan Lake)</v>
+      </c>
       <c r="D93" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D93),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Haw River (Jordan Lake)</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B94)),MAX($A$1:A93)+1,0)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>355</v>
       </c>
+      <c r="C94" t="str">
+        <f ca="1"/>
+        <v>Haw River (Pittsboro)</v>
+      </c>
       <c r="D94" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D94),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Haw River (Pittsboro)</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B95)),MAX($A$1:A94)+1,0)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>402</v>
       </c>
+      <c r="C95" t="str">
+        <f ca="1"/>
+        <v>Hitchcock Creek</v>
+      </c>
       <c r="D95" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D95),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Hitchcock Creek</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B96)),MAX($A$1:A95)+1,0)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>396</v>
       </c>
+      <c r="C96" t="str">
+        <f ca="1"/>
+        <v>Hiwassee River (Murphy)</v>
+      </c>
       <c r="D96" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D96),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Hiwassee River (Murphy)</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B97)),MAX($A$1:A96)+1,0)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>250</v>
       </c>
+      <c r="C97" t="str">
+        <f ca="1"/>
+        <v>Horse Creek</v>
+      </c>
       <c r="D97" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D97),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Horse Creek</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B98)),MAX($A$1:A97)+1,0)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>256</v>
       </c>
+      <c r="C98" t="str">
+        <f ca="1"/>
+        <v>Houston Branch</v>
+      </c>
       <c r="D98" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D98),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Houston Branch</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B99)),MAX($A$1:A98)+1,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>200</v>
       </c>
+      <c r="C99" t="str">
+        <f ca="1"/>
+        <v>Howard Creek</v>
+      </c>
       <c r="D99" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D99),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Howard Creek</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B100)),MAX($A$1:A99)+1,0)</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>283</v>
       </c>
+      <c r="C100" t="str">
+        <f ca="1"/>
+        <v>Hoyle Creek</v>
+      </c>
       <c r="D100" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D100),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Hoyle Creek</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B101)),MAX($A$1:A100)+1,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>274</v>
       </c>
+      <c r="C101" t="str">
+        <f ca="1"/>
+        <v>Hunting Creek</v>
+      </c>
       <c r="D101" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D101),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Hunting Creek</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B102)),MAX($A$1:A101)+1,0)</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>286</v>
       </c>
+      <c r="C102" t="str">
+        <f ca="1"/>
+        <v>Indian Creek</v>
+      </c>
       <c r="D102" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D102),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Indian Creek</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B103)),MAX($A$1:A102)+1,0)</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>237</v>
       </c>
+      <c r="C103" t="str">
+        <f ca="1"/>
+        <v>Indian Creek (Pheasant Cr.)</v>
+      </c>
       <c r="D103" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D103),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Indian Creek (Pheasant Cr.)</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B104)),MAX($A$1:A103)+1,0)</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>231</v>
       </c>
+      <c r="C104" t="str">
+        <f ca="1"/>
+        <v>Irish Buffalo Creek (Kannapolis Lake)</v>
+      </c>
       <c r="D104" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D104),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Irish Buffalo Creek (Kannapolis Lake)</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B105)),MAX($A$1:A104)+1,0)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>348</v>
       </c>
+      <c r="C105" t="str">
+        <f ca="1"/>
+        <v>Ivy River</v>
+      </c>
       <c r="D105" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D105),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Ivy River</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B106)),MAX($A$1:A105)+1,0)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>370</v>
       </c>
+      <c r="C106" t="str">
+        <f ca="1"/>
+        <v>Jacob Fork</v>
+      </c>
       <c r="D106" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D106),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Jacob Fork</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B107)),MAX($A$1:A106)+1,0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>226</v>
       </c>
+      <c r="C107" t="str">
+        <f ca="1"/>
+        <v>Jonathan Creek</v>
+      </c>
       <c r="D107" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D107),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Jonathan Creek</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B108)),MAX($A$1:A107)+1,0)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>391</v>
       </c>
+      <c r="C108" t="str">
+        <f ca="1"/>
+        <v>Killets Creek</v>
+      </c>
       <c r="D108" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D108),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Killets Creek</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B109)),MAX($A$1:A108)+1,0)</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>316</v>
       </c>
+      <c r="C109" t="str">
+        <f ca="1"/>
+        <v>Knap of Reeds Cr.(Lake Butner)</v>
+      </c>
       <c r="D109" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D109),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Knap of Reeds Cr.(Lake Butner)</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B110)),MAX($A$1:A109)+1,0)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>356</v>
       </c>
+      <c r="C110" t="str">
+        <f ca="1"/>
+        <v>Lake Hickory</v>
+      </c>
       <c r="D110" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D110),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lake Hickory</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B111)),MAX($A$1:A110)+1,0)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>360</v>
       </c>
+      <c r="C111" t="str">
+        <f ca="1"/>
+        <v>Lake Norman</v>
+      </c>
       <c r="D111" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D111),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lake Norman</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B112)),MAX($A$1:A111)+1,0)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>357</v>
       </c>
+      <c r="C112" t="str">
+        <f ca="1"/>
+        <v>Lake Rhodhiss</v>
+      </c>
       <c r="D112" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D112),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lake Rhodhiss</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B113)),MAX($A$1:A112)+1,0)</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>384</v>
       </c>
+      <c r="C113" t="str">
+        <f ca="1"/>
+        <v>Lake Tillery</v>
+      </c>
       <c r="D113" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D113),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lake Tillery</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B114)),MAX($A$1:A113)+1,0)</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>388</v>
       </c>
+      <c r="C114" t="str">
+        <f ca="1"/>
+        <v>Lake Wylie</v>
+      </c>
       <c r="D114" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D114),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lake Wylie</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B115)),MAX($A$1:A114)+1,0)</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>233</v>
       </c>
+      <c r="C115" t="str">
+        <f ca="1"/>
+        <v>Lands Creek</v>
+      </c>
       <c r="D115" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D115),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lands Creek</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B116)),MAX($A$1:A115)+1,0)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>227</v>
       </c>
+      <c r="C116" t="str">
+        <f ca="1"/>
+        <v>Laurel Branch</v>
+      </c>
       <c r="D116" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D116),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Laurel Branch</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B117)),MAX($A$1:A116)+1,0)</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>369</v>
       </c>
+      <c r="C117" t="str">
+        <f ca="1"/>
+        <v>Laurel Fork</v>
+      </c>
       <c r="D117" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D117),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Laurel Fork</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B118)),MAX($A$1:A117)+1,0)</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>327</v>
       </c>
+      <c r="C118" t="str">
+        <f ca="1"/>
+        <v>Ledge Creek</v>
+      </c>
       <c r="D118" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D118),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Ledge Creek</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B119)),MAX($A$1:A118)+1,0)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>275</v>
       </c>
+      <c r="C119" t="str">
+        <f ca="1"/>
+        <v>Leonard Creek</v>
+      </c>
       <c r="D119" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D119),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Leonard Creek</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B120)),MAX($A$1:A119)+1,0)</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>400</v>
       </c>
+      <c r="C120" t="str">
+        <f ca="1"/>
+        <v>Little Cross Creek</v>
+      </c>
       <c r="D120" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D120),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little Cross Creek</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B121)),MAX($A$1:A120)+1,0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>333</v>
       </c>
+      <c r="C121" t="str">
+        <f ca="1"/>
+        <v>Little Cub Creek</v>
+      </c>
       <c r="D121" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D121),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little Cub Creek</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B122)),MAX($A$1:A121)+1,0)</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>382</v>
       </c>
+      <c r="C122" t="str">
+        <f ca="1"/>
+        <v>Little River</v>
+      </c>
       <c r="D122" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D122),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little River</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B123)),MAX($A$1:A122)+1,0)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>398</v>
       </c>
+      <c r="C123" t="str">
+        <f ca="1"/>
+        <v>Little River (Intake no. 1)</v>
+      </c>
       <c r="D123" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D123),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little River (Intake no. 1)</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B124)),MAX($A$1:A123)+1,0)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>389</v>
       </c>
+      <c r="C124" t="str">
+        <f ca="1"/>
+        <v>Little River (Intake no. 2)</v>
+      </c>
       <c r="D124" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D124),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little River (Intake no. 2)</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B125)),MAX($A$1:A124)+1,0)</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>319</v>
       </c>
+      <c r="C125" t="str">
+        <f ca="1"/>
+        <v>Little River (Little River Reservoir)</v>
+      </c>
       <c r="D125" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D125),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little River (Little River Reservoir)</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B126)),MAX($A$1:A125)+1,0)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>392</v>
       </c>
+      <c r="C126" t="str">
+        <f ca="1"/>
+        <v>Little River (Vass)</v>
+      </c>
       <c r="D126" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D126),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little River (Vass)</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B127)),MAX($A$1:A126)+1,0)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>341</v>
       </c>
+      <c r="C127" t="str">
+        <f ca="1"/>
+        <v>Little River (Zebulon)</v>
+      </c>
       <c r="D127" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D127),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Little River (Zebulon)</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B128)),MAX($A$1:A127)+1,0)</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>292</v>
       </c>
+      <c r="C128" t="str">
+        <f ca="1"/>
+        <v>Long Creek</v>
+      </c>
       <c r="D128" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D128),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Long Creek</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B129)),MAX($A$1:A128)+1,0)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>291</v>
       </c>
+      <c r="C129" t="str">
+        <f ca="1"/>
+        <v>Long Creek (Little Tennessee)</v>
+      </c>
       <c r="D129" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D129),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Long Creek (Little Tennessee)</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B130)),MAX($A$1:A129)+1,0)</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>352</v>
       </c>
+      <c r="C130" t="str">
+        <f ca="1"/>
+        <v>Lookout Shoals Lake</v>
+      </c>
       <c r="D130" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D130),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lookout Shoals Lake</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B131)),MAX($A$1:A130)+1,0)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>194</v>
       </c>
+      <c r="C131" t="str">
+        <f ca="1"/>
+        <v>Lovills Creek</v>
+      </c>
       <c r="D131" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D131),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lovills Creek</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B132)),MAX($A$1:A131)+1,0)</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>407</v>
       </c>
+      <c r="C132" t="str">
+        <f ca="1"/>
+        <v>Lumber River (Lumberton)</v>
+      </c>
       <c r="D132" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D132),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lumber River (Lumberton)</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B133)),MAX($A$1:A132)+1,0)</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>406</v>
       </c>
+      <c r="C133" t="str">
+        <f ca="1"/>
+        <v>Lumber River (Robeson Co.)</v>
+      </c>
       <c r="D133" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D133),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Lumber River (Robeson Co.)</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B134)),MAX($A$1:A133)+1,0)</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>365</v>
       </c>
+      <c r="C134" t="str">
+        <f ca="1"/>
+        <v>Mackey Creek</v>
+      </c>
       <c r="D134" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D134),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Mackey Creek</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B135)),MAX($A$1:A134)+1,0)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>254</v>
       </c>
+      <c r="C135" t="str">
+        <f ca="1"/>
+        <v>Marble Creek</v>
+      </c>
       <c r="D135" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D135),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Marble Creek</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B136)),MAX($A$1:A135)+1,0)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>405</v>
       </c>
+      <c r="C136" t="str">
+        <f ca="1"/>
+        <v>Marks Creek</v>
+      </c>
       <c r="D136" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D136),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Marks Creek</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B137)),MAX($A$1:A136)+1,0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>305</v>
       </c>
+      <c r="C137" t="str">
+        <f ca="1"/>
+        <v>Mayo River</v>
+      </c>
       <c r="D137" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D137),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Mayo River</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B138)),MAX($A$1:A137)+1,0)</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>287</v>
       </c>
+      <c r="C138" t="str">
+        <f ca="1"/>
+        <v>Mills River</v>
+      </c>
       <c r="D138" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D138),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Mills River</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B139)),MAX($A$1:A138)+1,0)</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>285</v>
       </c>
+      <c r="C139" t="str">
+        <f ca="1"/>
+        <v>Mills River (Asheville)</v>
+      </c>
       <c r="D139" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D139),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Mills River (Asheville)</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B140)),MAX($A$1:A139)+1,0)</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>228</v>
       </c>
+      <c r="C140" t="str">
+        <f ca="1"/>
+        <v>Mingus Creek</v>
+      </c>
       <c r="D140" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D140),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Mingus Creek</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B141)),MAX($A$1:A140)+1,0)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>346</v>
       </c>
+      <c r="C141" t="str">
+        <f ca="1"/>
+        <v>Morgan Creek</v>
+      </c>
       <c r="D141" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D141),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Morgan Creek</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B142)),MAX($A$1:A141)+1,0)</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>244</v>
       </c>
+      <c r="C142" t="str">
+        <f ca="1"/>
+        <v>Mountain Island Lake</v>
+      </c>
       <c r="D142" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D142),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Mountain Island Lake</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B143)),MAX($A$1:A142)+1,0)</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>188</v>
       </c>
+      <c r="C143" t="str">
+        <f ca="1"/>
+        <v>Neuse River</v>
+      </c>
       <c r="D143" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D143),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Neuse River</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B144)),MAX($A$1:A143)+1,0)</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>383</v>
       </c>
+      <c r="C144" t="str">
+        <f ca="1"/>
+        <v>Neuse River (Goldsboro)</v>
+      </c>
       <c r="D144" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D144),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Neuse River (Goldsboro)</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B145)),MAX($A$1:A144)+1,0)</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>279</v>
       </c>
+      <c r="C145" t="str">
+        <f ca="1"/>
+        <v>Neuse River (Johnston County)</v>
+      </c>
       <c r="D145" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D145),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Neuse River (Johnston County)</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B146)),MAX($A$1:A145)+1,0)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>394</v>
       </c>
+      <c r="C146" t="str">
+        <f ca="1"/>
+        <v>Neuse River (Lenoir County)</v>
+      </c>
       <c r="D146" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D146),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Neuse River (Lenoir County)</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B147)),MAX($A$1:A146)+1,0)</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>280</v>
       </c>
+      <c r="C147" t="str">
+        <f ca="1"/>
+        <v>Neuse River (Smithfield)</v>
+      </c>
       <c r="D147" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D147),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Neuse River (Smithfield)</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B148)),MAX($A$1:A147)+1,0)</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>300</v>
       </c>
+      <c r="C148" t="str">
+        <f ca="1"/>
+        <v>Neuse River (Wake Forest)</v>
+      </c>
       <c r="D148" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D148),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Neuse River (Wake Forest)</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B149)),MAX($A$1:A148)+1,0)</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>297</v>
       </c>
+      <c r="C149" t="str">
+        <f ca="1"/>
+        <v>Nicks Creek</v>
+      </c>
       <c r="D149" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D149),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Nicks Creek</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B150)),MAX($A$1:A149)+1,0)</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>202</v>
       </c>
+      <c r="C150" t="str">
+        <f ca="1"/>
+        <v>Norris Branch</v>
+      </c>
       <c r="D150" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D150),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Norris Branch</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B151)),MAX($A$1:A150)+1,0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>278</v>
       </c>
+      <c r="C151" t="str">
+        <f ca="1"/>
+        <v>North Branch (Lake Wright)</v>
+      </c>
       <c r="D151" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D151),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>North Branch (Lake Wright)</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B152)),MAX($A$1:A151)+1,0)</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>208</v>
       </c>
+      <c r="C152" t="str">
+        <f ca="1"/>
+        <v>North Fork Big Laurel Creek</v>
+      </c>
       <c r="D152" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D152),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>North Fork Big Laurel Creek</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B153)),MAX($A$1:A152)+1,0)</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>260</v>
       </c>
+      <c r="C153" t="str">
+        <f ca="1"/>
+        <v>North Fork Jones Creek</v>
+      </c>
       <c r="D153" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D153),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>North Fork Jones Creek</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B154)),MAX($A$1:A153)+1,0)</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>282</v>
       </c>
+      <c r="C154" t="str">
+        <f ca="1"/>
+        <v>North Fork Mills River</v>
+      </c>
       <c r="D154" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D154),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>North Fork Mills River</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B155)),MAX($A$1:A154)+1,0)</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>218</v>
       </c>
+      <c r="C155" t="str">
+        <f ca="1"/>
+        <v>North Fork Swannanoa River</v>
+      </c>
       <c r="D155" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D155),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>North Fork Swannanoa River</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B156)),MAX($A$1:A155)+1,0)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>272</v>
       </c>
+      <c r="C156" t="str">
+        <f ca="1"/>
+        <v>North Toe River-Spruce Pine</v>
+      </c>
       <c r="D156" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D156),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>North Toe River-Spruce Pine</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B157)),MAX($A$1:A156)+1,0)</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>221</v>
       </c>
+      <c r="C157" t="str">
+        <f ca="1"/>
+        <v>Ox Creek</v>
+      </c>
       <c r="D157" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D157),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Ox Creek</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B158)),MAX($A$1:A157)+1,0)</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>263</v>
       </c>
+      <c r="C158" t="str">
+        <f ca="1"/>
+        <v>Pasquotank River</v>
+      </c>
       <c r="D158" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D158),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Pasquotank River</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B159)),MAX($A$1:A158)+1,0)</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>230</v>
       </c>
+      <c r="C159" t="str">
+        <f ca="1"/>
+        <v>Pigeon River</v>
+      </c>
       <c r="D159" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D159),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Pigeon River</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B160)),MAX($A$1:A159)+1,0)</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>217</v>
       </c>
+      <c r="C160" t="str">
+        <f ca="1"/>
+        <v>Polecat Creek</v>
+      </c>
       <c r="D160" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D160),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Polecat Creek</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B161)),MAX($A$1:A160)+1,0)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>267</v>
       </c>
+      <c r="C161" t="str">
+        <f ca="1"/>
+        <v>Pond Creek</v>
+      </c>
       <c r="D161" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D161),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Pond Creek</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B162)),MAX($A$1:A161)+1,0)</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>185</v>
       </c>
+      <c r="C162" t="str">
+        <f ca="1"/>
+        <v>Quarry</v>
+      </c>
       <c r="D162" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D162),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Quarry</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B163)),MAX($A$1:A162)+1,0)</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>257</v>
       </c>
+      <c r="C163" t="str">
+        <f ca="1"/>
+        <v>Rattlesnake Branch</v>
+      </c>
       <c r="D163" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D163),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Rattlesnake Branch</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B164)),MAX($A$1:A163)+1,0)</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>311</v>
       </c>
+      <c r="C164" t="str">
+        <f ca="1"/>
+        <v>Reddies River</v>
+      </c>
       <c r="D164" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D164),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Reddies River</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B165)),MAX($A$1:A164)+1,0)</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>324</v>
       </c>
+      <c r="C165" t="str">
+        <f ca="1"/>
+        <v>Reedy Fork</v>
+      </c>
       <c r="D165" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D165),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Reedy Fork</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B166)),MAX($A$1:A165)+1,0)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>404</v>
       </c>
+      <c r="C166" t="str">
+        <f ca="1"/>
+        <v>Richardson Creek</v>
+      </c>
       <c r="D166" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D166),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Richardson Creek</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B167)),MAX($A$1:A166)+1,0)</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>196</v>
       </c>
+      <c r="C167" t="str">
+        <f ca="1"/>
+        <v>Roanoke River</v>
+      </c>
       <c r="D167" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D167),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Roanoke River</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B168)),MAX($A$1:A167)+1,0)</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>197</v>
       </c>
+      <c r="C168" t="str">
+        <f ca="1"/>
+        <v>Roanoke River (Roanoke Rapids Lake)</v>
+      </c>
       <c r="D168" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D168),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Roanoke River (Roanoke Rapids Lake)</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B169)),MAX($A$1:A168)+1,0)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>289</v>
       </c>
+      <c r="C169" t="str">
+        <f ca="1"/>
+        <v>Rock Creek</v>
+      </c>
       <c r="D169" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D169),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Rock Creek</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B170)),MAX($A$1:A169)+1,0)</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>358</v>
       </c>
+      <c r="C170" t="str">
+        <f ca="1"/>
+        <v>Rocky River</v>
+      </c>
       <c r="D170" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D170),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Rocky River</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B171)),MAX($A$1:A170)+1,0)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>225</v>
       </c>
+      <c r="C171" t="str">
+        <f ca="1"/>
+        <v>Rough Creek</v>
+      </c>
       <c r="D171" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D171),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Rough Creek</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B172)),MAX($A$1:A171)+1,0)</f>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>329</v>
       </c>
+      <c r="C172" t="str">
+        <f ca="1"/>
+        <v>Salem Lake</v>
+      </c>
       <c r="D172" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D172),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Salem Lake</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B173)),MAX($A$1:A172)+1,0)</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>335</v>
       </c>
+      <c r="C173" t="str">
+        <f ca="1"/>
+        <v>Sally Kearney Creek</v>
+      </c>
       <c r="D173" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D173),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Sally Kearney Creek</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B174)),MAX($A$1:A173)+1,0)</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>353</v>
       </c>
+      <c r="C174" t="str">
+        <f ca="1"/>
+        <v>Sandy Creek</v>
+      </c>
       <c r="D174" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D174),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Sandy Creek</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B175)),MAX($A$1:A174)+1,0)</f>
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>390</v>
       </c>
+      <c r="C175" t="str">
+        <f ca="1"/>
+        <v>Second Broad River</v>
+      </c>
       <c r="D175" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D175),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Second Broad River</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B176)),MAX($A$1:A175)+1,0)</f>
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>381</v>
       </c>
+      <c r="C176" t="str">
+        <f ca="1"/>
+        <v>Second Broad River - Forest City</v>
+      </c>
       <c r="D176" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D176),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Second Broad River - Forest City</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B177)),MAX($A$1:A176)+1,0)</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>342</v>
       </c>
+      <c r="C177" t="str">
+        <f ca="1"/>
+        <v>Smith Creek (Wake Forest Reservoir)</v>
+      </c>
       <c r="D177" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D177),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Smith Creek (Wake Forest Reservoir)</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B178)),MAX($A$1:A177)+1,0)</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>195</v>
       </c>
+      <c r="C178" t="str">
+        <f ca="1"/>
+        <v>Smith River</v>
+      </c>
       <c r="D178" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D178),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Smith River</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B179)),MAX($A$1:A178)+1,0)</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>326</v>
       </c>
+      <c r="C179" t="str">
+        <f ca="1"/>
+        <v>South Deep Creek</v>
+      </c>
       <c r="D179" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D179),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Deep Creek</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B180)),MAX($A$1:A179)+1,0)</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>293</v>
       </c>
+      <c r="C180" t="str">
+        <f ca="1"/>
+        <v>South Fork Catawba River (Dallas/Gast./Ranlo)</v>
+      </c>
       <c r="D180" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D180),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Fork Catawba River (Dallas/Gast./Ranlo)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B181)),MAX($A$1:A180)+1,0)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>288</v>
       </c>
+      <c r="C181" t="str">
+        <f ca="1"/>
+        <v>South Fork Catawba River (High Shoals)</v>
+      </c>
       <c r="D181" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D181),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Fork Catawba River (High Shoals)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B182)),MAX($A$1:A181)+1,0)</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>376</v>
       </c>
+      <c r="C182" t="str">
+        <f ca="1"/>
+        <v>South Fork Catawba River (Town of Lincolnton)</v>
+      </c>
       <c r="D182" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D182),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Fork Catawba River (Town of Lincolnton)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B183)),MAX($A$1:A182)+1,0)</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
+      <c r="C183" t="str">
+        <f ca="1"/>
+        <v>South Fork New River</v>
+      </c>
       <c r="D183" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D183),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Fork New River</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B184)),MAX($A$1:A183)+1,0)</f>
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>323</v>
       </c>
+      <c r="C184" t="str">
+        <f ca="1"/>
+        <v>South Fork New River (Boone)</v>
+      </c>
       <c r="D184" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D184),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Fork New River (Boone)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B185)),MAX($A$1:A184)+1,0)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>264</v>
       </c>
+      <c r="C185" t="str">
+        <f ca="1"/>
+        <v>South Fork New River (Jefferson,W.Jefferson)</v>
+      </c>
       <c r="D185" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D185),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Fork New River (Jefferson,W.Jefferson)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B186)),MAX($A$1:A185)+1,0)</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>312</v>
       </c>
+      <c r="C186" t="str">
+        <f ca="1"/>
+        <v>South Hyco Creek</v>
+      </c>
       <c r="D186" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D186),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Hyco Creek</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B187)),MAX($A$1:A186)+1,0)</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>344</v>
       </c>
+      <c r="C187" t="str">
+        <f ca="1"/>
+        <v>South Yadkin River</v>
+      </c>
       <c r="D187" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D187),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Yadkin River</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B188)),MAX($A$1:A187)+1,0)</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>276</v>
       </c>
+      <c r="C188" t="str">
+        <f ca="1"/>
+        <v>South Yadkin River - Cooleemee</v>
+      </c>
       <c r="D188" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D188),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Yadkin River - Cooleemee</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B189)),MAX($A$1:A188)+1,0)</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>338</v>
       </c>
+      <c r="C189" t="str">
+        <f ca="1"/>
+        <v>South Yadkin River (Alexander Co.)</v>
+      </c>
       <c r="D189" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D189),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>South Yadkin River (Alexander Co.)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B190)),MAX($A$1:A189)+1,0)</f>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>302</v>
       </c>
+      <c r="C190" t="str">
+        <f ca="1"/>
+        <v>Stewarts Creek</v>
+      </c>
       <c r="D190" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D190),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Stewarts Creek</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B191)),MAX($A$1:A190)+1,0)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>403</v>
       </c>
+      <c r="C191" t="str">
+        <f ca="1"/>
+        <v>Stewarts Creek (Lake Twitty)</v>
+      </c>
       <c r="D191" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D191),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Stewarts Creek (Lake Twitty)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B192)),MAX($A$1:A191)+1,0)</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>315</v>
       </c>
+      <c r="C192" t="str">
+        <f ca="1"/>
+        <v>Stony Creek</v>
+      </c>
       <c r="D192" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D192),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Stony Creek</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B193)),MAX($A$1:A192)+1,0)</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>306</v>
       </c>
+      <c r="C193" t="str">
+        <f ca="1"/>
+        <v>Storys Creek</v>
+      </c>
       <c r="D193" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D193),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Storys Creek</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B194)),MAX($A$1:A193)+1,0)</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>367</v>
       </c>
+      <c r="C194" t="str">
+        <f ca="1"/>
+        <v>Sugarcamp Fork</v>
+      </c>
       <c r="D194" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D194),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Sugarcamp Fork</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B195)),MAX($A$1:A194)+1,0)</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>362</v>
       </c>
+      <c r="C195" t="str">
+        <f ca="1"/>
+        <v>Swift Creek (Lake Benson)</v>
+      </c>
       <c r="D195" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D195),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Swift Creek (Lake Benson)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B196)),MAX($A$1:A195)+1,0)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>363</v>
       </c>
+      <c r="C196" t="str">
+        <f ca="1"/>
+        <v>Tar River (Greenville)</v>
+      </c>
       <c r="D196" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D196),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tar River (Greenville)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B197)),MAX($A$1:A196)+1,0)</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>320</v>
       </c>
+      <c r="C197" t="str">
+        <f ca="1"/>
+        <v>Tar River (Louisburg)</v>
+      </c>
       <c r="D197" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D197),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tar River (Louisburg)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B198)),MAX($A$1:A197)+1,0)</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>201</v>
       </c>
+      <c r="C198" t="str">
+        <f ca="1"/>
+        <v>Tar River (Oxford)</v>
+      </c>
       <c r="D198" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D198),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tar River (Oxford)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B199)),MAX($A$1:A198)+1,0)</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>211</v>
       </c>
+      <c r="C199" t="str">
+        <f ca="1"/>
+        <v>Tar River (Rocky Mount)</v>
+      </c>
       <c r="D199" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D199),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tar River (Rocky Mount)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B200)),MAX($A$1:A199)+1,0)</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>347</v>
       </c>
+      <c r="C200" t="str">
+        <f ca="1"/>
+        <v>Tar River (Tar River Res.)</v>
+      </c>
       <c r="D200" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D200),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tar River (Tar River Res.)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B201)),MAX($A$1:A200)+1,0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>337</v>
       </c>
+      <c r="C201" t="str">
+        <f ca="1"/>
+        <v>Tar River (Tarboro)</v>
+      </c>
       <c r="D201" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D201),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tar River (Tarboro)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B202)),MAX($A$1:A201)+1,0)</f>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>220</v>
       </c>
+      <c r="C202" t="str">
+        <f ca="1"/>
+        <v>Toisnot Swamp</v>
+      </c>
       <c r="D202" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D202),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Toisnot Swamp</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B203)),MAX($A$1:A202)+1,0)</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>304</v>
       </c>
+      <c r="C203" t="str">
+        <f ca="1"/>
+        <v>Toms Creek</v>
+      </c>
       <c r="D203" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D203),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Toms Creek</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B204)),MAX($A$1:A203)+1,0)</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>262</v>
       </c>
+      <c r="C204" t="str">
+        <f ca="1"/>
+        <v>Toomers Creek</v>
+      </c>
       <c r="D204" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D204),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Toomers Creek</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B205)),MAX($A$1:A204)+1,0)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>313</v>
       </c>
+      <c r="C205" t="str">
+        <f ca="1"/>
+        <v>Troublesome Creek</v>
+      </c>
       <c r="D205" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D205),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Troublesome Creek</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B206)),MAX($A$1:A205)+1,0)</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>246</v>
       </c>
+      <c r="C206" t="str">
+        <f ca="1"/>
+        <v>Tuckasegee River</v>
+      </c>
       <c r="D206" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D206),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tuckasegee River</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B207)),MAX($A$1:A206)+1,0)</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>372</v>
       </c>
+      <c r="C207" t="str">
+        <f ca="1"/>
+        <v>Tuckertown Reservoir</v>
+      </c>
       <c r="D207" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D207),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Tuckertown Reservoir</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B208)),MAX($A$1:A207)+1,0)</f>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>214</v>
       </c>
+      <c r="C208" t="str">
+        <f ca="1"/>
+        <v>UT at Bowlens Creek</v>
+      </c>
       <c r="D208" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D208),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT at Bowlens Creek</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B209)),MAX($A$1:A208)+1,0)</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>296</v>
       </c>
+      <c r="C209" t="str">
+        <f ca="1"/>
+        <v>UT at Long Creek (Arrowood Lake)</v>
+      </c>
       <c r="D209" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D209),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT at Long Creek (Arrowood Lake)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B210)),MAX($A$1:A209)+1,0)</f>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>241</v>
       </c>
+      <c r="C210" t="str">
+        <f ca="1"/>
+        <v>UT Fisher Creek</v>
+      </c>
       <c r="D210" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D210),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT Fisher Creek</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B211)),MAX($A$1:A210)+1,0)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>222</v>
       </c>
+      <c r="C211" t="str">
+        <f ca="1"/>
+        <v>UT to Cedar Fork Creek</v>
+      </c>
       <c r="D211" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D211),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT to Cedar Fork Creek</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B212)),MAX($A$1:A211)+1,0)</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>242</v>
       </c>
+      <c r="C212" t="str">
+        <f ca="1"/>
+        <v>UT to Dills Creek</v>
+      </c>
       <c r="D212" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D212),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT to Dills Creek</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B213)),MAX($A$1:A212)+1,0)</f>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>199</v>
       </c>
+      <c r="C213" t="str">
+        <f ca="1"/>
+        <v>UT-At Camp Sertoma</v>
+      </c>
       <c r="D213" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D213),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT-At Camp Sertoma</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B214)),MAX($A$1:A213)+1,0)</f>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>209</v>
       </c>
+      <c r="C214" t="str">
+        <f ca="1"/>
+        <v>UT-North Fork Big Laurel Creek</v>
+      </c>
       <c r="D214" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D214),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>UT-North Fork Big Laurel Creek</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B215)),MAX($A$1:A214)+1,0)</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>351</v>
       </c>
+      <c r="C215" t="str">
+        <f ca="1"/>
+        <v>Uwharrie River (Lake Reese)</v>
+      </c>
       <c r="D215" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D215),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Uwharrie River (Lake Reese)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B216)),MAX($A$1:A215)+1,0)</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>343</v>
       </c>
+      <c r="C216" t="str">
+        <f ca="1"/>
+        <v>Warrior Fork</v>
+      </c>
       <c r="D216" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D216),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Warrior Fork</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B217)),MAX($A$1:A216)+1,0)</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>206</v>
       </c>
+      <c r="C217" t="str">
+        <f ca="1"/>
+        <v>West Fork Deep River</v>
+      </c>
       <c r="D217" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D217),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>West Fork Deep River</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B218)),MAX($A$1:A217)+1,0)</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>325</v>
       </c>
+      <c r="C218" t="str">
+        <f ca="1"/>
+        <v>Winkler Creek</v>
+      </c>
       <c r="D218" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D218),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Winkler Creek</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B219)),MAX($A$1:A218)+1,0)</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>331</v>
       </c>
+      <c r="C219" t="str">
+        <f ca="1"/>
+        <v>Yadkin River - Davie Co.</v>
+      </c>
       <c r="D219" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D219),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River - Davie Co.</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B220)),MAX($A$1:A219)+1,0)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>268</v>
       </c>
+      <c r="C220" t="str">
+        <f ca="1"/>
+        <v>Yadkin River - King</v>
+      </c>
       <c r="D220" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D220),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River - King</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B221)),MAX($A$1:A220)+1,0)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>349</v>
       </c>
+      <c r="C221" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Davidson Co.)</v>
+      </c>
       <c r="D221" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D221),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Davidson Co.)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B222)),MAX($A$1:A221)+1,0)</f>
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>192</v>
       </c>
+      <c r="C222" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Elkin)</v>
+      </c>
       <c r="D222" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D222),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Elkin)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B223)),MAX($A$1:A222)+1,0)</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>203</v>
       </c>
+      <c r="C223" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Jonesville)</v>
+      </c>
       <c r="D223" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D223),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Jonesville)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B224)),MAX($A$1:A223)+1,0)</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>359</v>
       </c>
+      <c r="C224" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Salisbury w.s.i.)</v>
+      </c>
       <c r="D224" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D224),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Salisbury w.s.i.)</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B225)),MAX($A$1:A224)+1,0)</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>322</v>
       </c>
+      <c r="C225" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Wilkesboro)</v>
+      </c>
       <c r="D225" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D225),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Wilkesboro)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B226)),MAX($A$1:A225)+1,0)</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>336</v>
       </c>
+      <c r="C226" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Winston-Salem) Lower</v>
+      </c>
       <c r="D226" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D226),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Winston-Salem) Lower</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B227)),MAX($A$1:A226)+1,0)</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>318</v>
       </c>
+      <c r="C227" t="str">
+        <f ca="1"/>
+        <v>Yadkin River (Winston-Salem) Upper</v>
+      </c>
       <c r="D227" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D227),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yadkin River (Winston-Salem) Upper</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>IF(ISNUMBER(SEARCH(sources!$F$2,B228)),MAX($A$1:A227)+1,0)</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>236</v>
       </c>
+      <c r="C228" t="str">
+        <f ca="1"/>
+        <v>Yellowhammer Branch</v>
+      </c>
       <c r="D228" t="str">
         <f>IFERROR(VLOOKUP(ROWS($D$2:D228),$A$2:$B$228,2,0),"")</f>
-        <v/>
+        <v>Yellowhammer Branch</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +6482,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,9 +6531,6 @@
       <c r="E2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5594,9 +6547,6 @@
       </c>
       <c r="E3" t="s">
         <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5715,7 +6665,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,65 +6812,156 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="22" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="24" t="s">
         <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6728,8 +7769,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
